--- a/data/trans_orig/P14A07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1D2A72F-6280-411B-9444-8F90761BCF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B4B55FB-07ED-4265-83FF-1866FC9BEFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F02953D6-2B28-4EFC-9008-CA0C44BA390D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2BDBBC5F-FD1D-4709-8E08-738F4D8E9DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,7 +75,7 @@
     <t>67,73%</t>
   </si>
   <si>
-    <t>32,71%</t>
+    <t>32,7%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -84,19 +84,19 @@
     <t>59,56%</t>
   </si>
   <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
   </si>
   <si>
     <t>60,58%</t>
   </si>
   <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,25 +108,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>67,29%</t>
+    <t>67,3%</t>
   </si>
   <si>
     <t>40,44%</t>
   </si>
   <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
   </si>
   <si>
     <t>39,42%</t>
   </si>
   <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -141,19 +141,19 @@
     <t>56,27%</t>
   </si>
   <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
   </si>
   <si>
     <t>62,06%</t>
   </si>
   <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
   </si>
   <si>
     <t>0%</t>
@@ -165,19 +165,19 @@
     <t>43,73%</t>
   </si>
   <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
   </si>
   <si>
     <t>37,94%</t>
   </si>
   <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -189,13 +189,13 @@
     <t>85,0%</t>
   </si>
   <si>
-    <t>32,82%</t>
+    <t>32,37%</t>
   </si>
   <si>
     <t>74,53%</t>
   </si>
   <si>
-    <t>28,7%</t>
+    <t>28,97%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -204,67 +204,67 @@
     <t>15,0%</t>
   </si>
   <si>
-    <t>67,18%</t>
+    <t>67,63%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>71,3%</t>
+    <t>71,03%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>61,16%</t>
   </si>
   <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
   </si>
   <si>
     <t>62,38%</t>
   </si>
   <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
   </si>
   <si>
     <t>29,27%</t>
   </si>
   <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
   </si>
   <si>
     <t>38,84%</t>
   </si>
   <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
   </si>
   <si>
     <t>37,62%</t>
   </si>
   <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -276,91 +276,91 @@
     <t>90,95%</t>
   </si>
   <si>
-    <t>60,04%</t>
+    <t>59,37%</t>
   </si>
   <si>
     <t>78,63%</t>
   </si>
   <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
   </si>
   <si>
     <t>81,14%</t>
   </si>
   <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>39,96%</t>
+    <t>40,63%</t>
   </si>
   <si>
     <t>21,37%</t>
   </si>
   <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
   </si>
   <si>
     <t>18,86%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
   </si>
   <si>
     <t>62,09%</t>
   </si>
   <si>
-    <t>19,99%</t>
+    <t>19,63%</t>
   </si>
   <si>
     <t>83,32%</t>
   </si>
   <si>
-    <t>56,16%</t>
+    <t>49,78%</t>
   </si>
   <si>
     <t>77,47%</t>
   </si>
   <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
   <si>
     <t>37,91%</t>
   </si>
   <si>
-    <t>80,01%</t>
+    <t>80,37%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>43,84%</t>
+    <t>50,22%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
   </si>
   <si>
     <t>41,9%</t>
@@ -369,19 +369,19 @@
     <t>55,21%</t>
   </si>
   <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
   </si>
   <si>
     <t>52,62%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
   </si>
   <si>
     <t>58,1%</t>
@@ -390,67 +390,67 @@
     <t>44,79%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
   </si>
   <si>
     <t>47,38%</t>
   </si>
   <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
   <si>
     <t>76,16%</t>
   </si>
   <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>76,15%</t>
   </si>
   <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>23,84%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
   </si>
   <si>
     <t>23,85%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
   </si>
 </sst>
 </file>
@@ -862,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEA185E-C7E2-441A-8796-12F678936BA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4BFE77-D903-4821-AF48-AC80142F77CC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1613,7 +1613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AD73BF-4022-4211-82C3-40CF4CA53CDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F80759-F7BA-4317-9B74-28BDB1A219D2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A07-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B4B55FB-07ED-4265-83FF-1866FC9BEFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{585953DA-1198-404F-9F7F-CFAF997F7C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2BDBBC5F-FD1D-4709-8E08-738F4D8E9DF9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{30ACAD11-417D-41BE-A6F6-2951E084460E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +75,7 @@
     <t>67,73%</t>
   </si>
   <si>
-    <t>32,7%</t>
+    <t>17,68%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -84,19 +84,19 @@
     <t>59,56%</t>
   </si>
   <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
   </si>
   <si>
     <t>60,58%</t>
   </si>
   <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,25 +108,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>67,3%</t>
+    <t>82,32%</t>
   </si>
   <si>
     <t>40,44%</t>
   </si>
   <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
   </si>
   <si>
     <t>39,42%</t>
   </si>
   <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
   </si>
   <si>
     <t>100%</t>
@@ -141,19 +141,19 @@
     <t>56,27%</t>
   </si>
   <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
   </si>
   <si>
     <t>62,06%</t>
   </si>
   <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
   </si>
   <si>
     <t>0%</t>
@@ -165,19 +165,19 @@
     <t>43,73%</t>
   </si>
   <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
   </si>
   <si>
     <t>37,94%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -216,151 +216,151 @@
     <t>70,73%</t>
   </si>
   <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
   </si>
   <si>
     <t>61,16%</t>
   </si>
   <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
   </si>
   <si>
     <t>62,38%</t>
   </si>
   <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
   </si>
   <si>
     <t>29,27%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
   </si>
   <si>
     <t>38,84%</t>
   </si>
   <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
   </si>
   <si>
     <t>37,62%</t>
   </si>
   <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por estreñimiento crónico en 2015 (Tasa respuesta: 1,04%)</t>
+    <t>Población que recibe medicación o terapia por estreñimiento crónico en 2016 (Tasa respuesta: 1,04%)</t>
   </si>
   <si>
     <t>90,95%</t>
   </si>
   <si>
-    <t>59,37%</t>
+    <t>57,3%</t>
   </si>
   <si>
     <t>78,63%</t>
   </si>
   <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
   </si>
   <si>
     <t>81,14%</t>
   </si>
   <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>40,63%</t>
+    <t>42,7%</t>
   </si>
   <si>
     <t>21,37%</t>
   </si>
   <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
   </si>
   <si>
     <t>18,86%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
   </si>
   <si>
     <t>62,09%</t>
   </si>
   <si>
-    <t>19,63%</t>
+    <t>19,99%</t>
   </si>
   <si>
     <t>83,32%</t>
   </si>
   <si>
-    <t>49,78%</t>
+    <t>52,22%</t>
   </si>
   <si>
     <t>77,47%</t>
   </si>
   <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
   </si>
   <si>
     <t>37,91%</t>
   </si>
   <si>
-    <t>80,37%</t>
+    <t>80,01%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>50,22%</t>
+    <t>47,78%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
   </si>
   <si>
     <t>41,9%</t>
@@ -369,19 +369,19 @@
     <t>55,21%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
   </si>
   <si>
     <t>52,62%</t>
   </si>
   <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
   <si>
     <t>58,1%</t>
@@ -390,67 +390,67 @@
     <t>44,79%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
   </si>
   <si>
     <t>47,38%</t>
   </si>
   <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
   </si>
   <si>
     <t>76,16%</t>
   </si>
   <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>76,15%</t>
   </si>
   <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
   </si>
   <si>
     <t>23,84%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
   </si>
   <si>
     <t>23,85%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
   </si>
 </sst>
 </file>
@@ -862,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4BFE77-D903-4821-AF48-AC80142F77CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C900709E-4D7B-40DC-914C-DA099DB780B4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1613,7 +1613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F80759-F7BA-4317-9B74-28BDB1A219D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED09453-1381-4217-AD78-1A7E2FEC964F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
